--- a/extraData/LuckyCharmsExtra.xlsx
+++ b/extraData/LuckyCharmsExtra.xlsx
@@ -165,12 +165,12 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$D$2:$D$74</c:f>
+              <c:f>Data!$D$2:$D$122</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$P$2:$P$74</c:f>
+              <c:f>Data!$P$2:$P$122</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -183,11 +183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="108890498"/>
-        <c:axId val="871926947"/>
+        <c:axId val="190671974"/>
+        <c:axId val="1800977525"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="108890498"/>
+        <c:axId val="190671974"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -262,10 +262,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="871926947"/>
+        <c:crossAx val="1800977525"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="871926947"/>
+        <c:axId val="1800977525"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -340,7 +340,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108890498"/>
+        <c:crossAx val="190671974"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -699,7 +699,7 @@
         <v>1.76</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G74" si="1">E2-F2</f>
+        <f t="shared" ref="G2:G117" si="1">E2-F2</f>
         <v>28.77</v>
       </c>
       <c r="H2" s="1">
@@ -727,7 +727,7 @@
         <v>4.0</v>
       </c>
       <c r="P2" s="3">
-        <f t="shared" ref="P2:P74" si="2">SUM(H2:O2)</f>
+        <f t="shared" ref="P2:P117" si="2">SUM(H2:O2)</f>
         <v>33</v>
       </c>
     </row>
@@ -4476,28 +4476,2240 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2"/>
+      <c r="A75" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B75" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D75" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>39.43</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G75" s="3">
+        <f t="shared" si="1"/>
+        <v>37.65</v>
+      </c>
+      <c r="H75" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M75" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P75" s="3">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="2"/>
+      <c r="A76" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B76" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>34.25</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="1"/>
+        <v>32.47</v>
+      </c>
+      <c r="H76" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M76" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P76" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="2"/>
+      <c r="A77" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B77" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>35.35</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="1"/>
+        <v>33.57</v>
+      </c>
+      <c r="H77" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K77" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L77" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="M77" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N77" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P77" s="3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="2"/>
+      <c r="A78" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B78" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>33.31</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="1"/>
+        <v>31.53</v>
+      </c>
+      <c r="H78" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K78" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L78" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M78" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N78" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P78" s="3">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="2"/>
+      <c r="A79" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B79" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D79" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>36.2</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="1"/>
+        <v>34.42</v>
+      </c>
+      <c r="H79" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I79" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K79" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L79" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M79" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N79" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O79" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P79" s="3">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="2"/>
+      <c r="A80" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B80" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>36.21</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="1"/>
+        <v>34.43</v>
+      </c>
+      <c r="H80" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I80" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K80" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L80" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M80" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N80" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O80" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P80" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="2"/>
+      <c r="A81" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B81" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>38.68</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" si="1"/>
+        <v>36.9</v>
+      </c>
+      <c r="H81" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I81" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K81" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L81" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M81" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N81" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O81" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P81" s="3">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="2"/>
+      <c r="A82" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B82" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>41.27</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G82" s="3">
+        <f t="shared" si="1"/>
+        <v>39.49</v>
+      </c>
+      <c r="H82" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I82" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K82" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L82" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M82" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N82" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O82" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P82" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E83" s="1">
+        <v>38.43</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="1"/>
+        <v>36.65</v>
+      </c>
+      <c r="H83" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I83" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K83" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L83" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M83" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N83" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O83" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P83" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>37.83</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" si="1"/>
+        <v>36.05</v>
+      </c>
+      <c r="H84" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I84" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K84" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L84" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M84" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N84" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O84" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P84" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D85" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>38.72</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="1"/>
+        <v>36.94</v>
+      </c>
+      <c r="H85" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I85" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K85" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L85" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M85" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N85" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P85" s="3">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="E86" s="1">
+        <v>37.61</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G86" s="3">
+        <f t="shared" si="1"/>
+        <v>35.83</v>
+      </c>
+      <c r="H86" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K86" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L86" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M86" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N86" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O86" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P86" s="3">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D87" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>39.4</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" si="1"/>
+        <v>37.62</v>
+      </c>
+      <c r="H87" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I87" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K87" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L87" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="M87" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N87" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P87" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>39.81</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G88" s="3">
+        <f t="shared" si="1"/>
+        <v>38.03</v>
+      </c>
+      <c r="H88" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I88" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K88" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L88" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M88" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N88" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O88" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P88" s="3">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>34.89</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G89" s="3">
+        <f t="shared" si="1"/>
+        <v>33.11</v>
+      </c>
+      <c r="H89" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K89" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L89" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M89" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N89" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O89" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P89" s="3">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>41.77</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="1"/>
+        <v>40.09</v>
+      </c>
+      <c r="H90" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I90" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K90" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M90" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N90" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O90" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P90" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E91" s="1">
+        <v>37.47</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="G91" s="3">
+        <f t="shared" si="1"/>
+        <v>35.79</v>
+      </c>
+      <c r="H91" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I91" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K91" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L91" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M91" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N91" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P91" s="3">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B92" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>38.59</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" si="1"/>
+        <v>36.91</v>
+      </c>
+      <c r="H92" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I92" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K92" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L92" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M92" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N92" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="O92" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P92" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>37.6</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="G93" s="3">
+        <f t="shared" si="1"/>
+        <v>35.92</v>
+      </c>
+      <c r="H93" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I93" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K93" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L93" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M93" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N93" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O93" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P93" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>40.01</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="G94" s="3">
+        <f t="shared" si="1"/>
+        <v>38.33</v>
+      </c>
+      <c r="H94" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I94" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K94" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M94" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N94" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O94" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P94" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B95" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E95" s="1">
+        <v>38.2</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="G95" s="3">
+        <f t="shared" si="1"/>
+        <v>36.52</v>
+      </c>
+      <c r="H95" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K95" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L95" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M95" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N95" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O95" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P95" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B96" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>37.67</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="G96" s="3">
+        <f t="shared" si="1"/>
+        <v>35.99</v>
+      </c>
+      <c r="H96" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I96" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K96" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L96" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M96" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N96" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O96" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P96" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B97" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C97" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>43.49</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="G97" s="3">
+        <f t="shared" si="1"/>
+        <v>41.81</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I97" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M97" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O97" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P97" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B98" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E98" s="1">
+        <v>43.63</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="G98" s="3">
+        <f t="shared" si="1"/>
+        <v>41.95</v>
+      </c>
+      <c r="H98" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I98" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K98" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L98" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M98" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O98" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P98" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B99" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D99" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>44.25</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="G99" s="3">
+        <f t="shared" si="1"/>
+        <v>42.57</v>
+      </c>
+      <c r="H99" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I99" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K99" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L99" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M99" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N99" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O99" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P99" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B100" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D100" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>44.31</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="G100" s="3">
+        <f t="shared" si="1"/>
+        <v>42.63</v>
+      </c>
+      <c r="H100" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L100" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M100" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N100" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O100" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P100" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D101" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>45.6</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="G101" s="3">
+        <f t="shared" si="1"/>
+        <v>43.92</v>
+      </c>
+      <c r="H101" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I101" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L101" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M101" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N101" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O101" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P101" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B102" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D102" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="E102" s="1">
+        <v>41.95</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" si="1"/>
+        <v>40.27</v>
+      </c>
+      <c r="H102" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I102" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L102" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M102" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N102" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O102" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P102" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B103" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C103" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D103" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>19.08</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1.68</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="1"/>
+        <v>17.4</v>
+      </c>
+      <c r="H103" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L103" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M103" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N103" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O103" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P103" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B104" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D104" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>40.06</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G104" s="3">
+        <f t="shared" si="1"/>
+        <v>38.33</v>
+      </c>
+      <c r="H104" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I104" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K104" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L104" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M104" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N104" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O104" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P104" s="3">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B105" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>37.27</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G105" s="3">
+        <f t="shared" si="1"/>
+        <v>35.54</v>
+      </c>
+      <c r="H105" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I105" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K105" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L105" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M105" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N105" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O105" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P105" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B106" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>40.9</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G106" s="3">
+        <f t="shared" si="1"/>
+        <v>39.17</v>
+      </c>
+      <c r="H106" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L106" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M106" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N106" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O106" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P106" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B107" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>40.59</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G107" s="3">
+        <f t="shared" si="1"/>
+        <v>38.86</v>
+      </c>
+      <c r="H107" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K107" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L107" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M107" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N107" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O107" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P107" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B108" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E108" s="1">
+        <v>41.5</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G108" s="3">
+        <f t="shared" si="1"/>
+        <v>39.77</v>
+      </c>
+      <c r="H108" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I108" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K108" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L108" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M108" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N108" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O108" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P108" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B109" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>41.71</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G109" s="3">
+        <f t="shared" si="1"/>
+        <v>39.98</v>
+      </c>
+      <c r="H109" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I109" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K109" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L109" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M109" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N109" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O109" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P109" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B110" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>41.66</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G110" s="3">
+        <f t="shared" si="1"/>
+        <v>39.93</v>
+      </c>
+      <c r="H110" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I110" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K110" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L110" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M110" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N110" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O110" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P110" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B111" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E111" s="1">
+        <v>40.64</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G111" s="3">
+        <f t="shared" si="1"/>
+        <v>38.91</v>
+      </c>
+      <c r="H111" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I111" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K111" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L111" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M111" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="N111" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O111" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P111" s="3">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B112" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D112" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>42.16</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G112" s="3">
+        <f t="shared" si="1"/>
+        <v>40.43</v>
+      </c>
+      <c r="H112" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I112" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K112" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L112" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M112" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N112" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O112" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P112" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B113" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E113" s="1">
+        <v>40.6</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G113" s="3">
+        <f t="shared" si="1"/>
+        <v>38.87</v>
+      </c>
+      <c r="H113" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I113" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K113" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L113" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M113" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N113" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O113" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P113" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B114" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C114" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="E114" s="1">
+        <v>43.16</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G114" s="3">
+        <f t="shared" si="1"/>
+        <v>41.43</v>
+      </c>
+      <c r="H114" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I114" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K114" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L114" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M114" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N114" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O114" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P114" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B115" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C115" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>44.98</v>
+      </c>
+      <c r="F115" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G115" s="3">
+        <f t="shared" si="1"/>
+        <v>43.25</v>
+      </c>
+      <c r="H115" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I115" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J115" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K115" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L115" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M115" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N115" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O115" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P115" s="3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B116" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C116" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D116" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="E116" s="1">
+        <v>44.75</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G116" s="3">
+        <f t="shared" si="1"/>
+        <v>43.02</v>
+      </c>
+      <c r="H116" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I116" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J116" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K116" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L116" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M116" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N116" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O116" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P116" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B117" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="C117" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D117" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>19.47</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G117" s="3">
+        <f t="shared" si="1"/>
+        <v>17.74</v>
+      </c>
+      <c r="H117" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J117" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K117" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M117" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N117" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O117" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P117" s="3">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/extraData/LuckyCharmsExtra.xlsx
+++ b/extraData/LuckyCharmsExtra.xlsx
@@ -165,12 +165,12 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$D$2:$D$122</c:f>
+              <c:f>Data!$D$2:$D$154</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$P$2:$P$122</c:f>
+              <c:f>Data!$P$2:$P$154</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -183,11 +183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="190671974"/>
-        <c:axId val="1800977525"/>
+        <c:axId val="512588967"/>
+        <c:axId val="1260884359"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="190671974"/>
+        <c:axId val="512588967"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -262,10 +262,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1800977525"/>
+        <c:crossAx val="1260884359"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1800977525"/>
+        <c:axId val="1260884359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -340,7 +340,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190671974"/>
+        <c:crossAx val="512588967"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -699,7 +699,7 @@
         <v>1.76</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G117" si="1">E2-F2</f>
+        <f t="shared" ref="G2:G154" si="1">E2-F2</f>
         <v>28.77</v>
       </c>
       <c r="H2" s="1">
@@ -727,7 +727,7 @@
         <v>4.0</v>
       </c>
       <c r="P2" s="3">
-        <f t="shared" ref="P2:P117" si="2">SUM(H2:O2)</f>
+        <f t="shared" ref="P2:P154" si="2">SUM(H2:O2)</f>
         <v>33</v>
       </c>
     </row>
@@ -6709,6 +6709,1930 @@
       <c r="P117" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>37.35</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G118" s="3">
+        <f t="shared" si="1"/>
+        <v>35.57</v>
+      </c>
+      <c r="H118" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I118" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K118" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L118" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="M118" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="N118" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O118" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P118" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C119" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D119" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E119" s="1">
+        <v>44.46</v>
+      </c>
+      <c r="F119" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G119" s="3">
+        <f t="shared" si="1"/>
+        <v>42.68</v>
+      </c>
+      <c r="H119" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I119" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K119" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L119" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M119" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N119" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O119" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P119" s="3">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D120" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G120" s="3">
+        <f t="shared" si="1"/>
+        <v>32.22</v>
+      </c>
+      <c r="H120" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I120" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K120" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L120" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="M120" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N120" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="O120" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P120" s="3">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C121" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D121" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E121" s="1">
+        <v>35.65</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G121" s="3">
+        <f t="shared" si="1"/>
+        <v>33.87</v>
+      </c>
+      <c r="H121" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I121" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L121" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M121" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N121" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O121" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P121" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D122" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E122" s="1">
+        <v>36.1</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G122" s="3">
+        <f t="shared" si="1"/>
+        <v>34.32</v>
+      </c>
+      <c r="H122" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I122" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K122" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L122" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M122" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N122" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O122" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P122" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B123" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C123" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D123" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>37.76</v>
+      </c>
+      <c r="F123" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G123" s="3">
+        <f t="shared" si="1"/>
+        <v>35.98</v>
+      </c>
+      <c r="H123" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I123" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K123" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L123" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M123" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N123" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O123" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P123" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D124" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>40.19</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G124" s="3">
+        <f t="shared" si="1"/>
+        <v>38.41</v>
+      </c>
+      <c r="H124" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I124" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K124" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L124" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M124" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N124" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O124" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P124" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D125" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E125" s="1">
+        <v>35.75</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G125" s="3">
+        <f t="shared" si="1"/>
+        <v>33.97</v>
+      </c>
+      <c r="H125" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I125" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J125" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K125" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L125" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M125" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N125" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O125" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P125" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B126" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D126" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>37.42</v>
+      </c>
+      <c r="F126" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G126" s="3">
+        <f t="shared" si="1"/>
+        <v>35.64</v>
+      </c>
+      <c r="H126" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I126" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J126" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K126" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L126" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M126" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N126" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="O126" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P126" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B127" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>37.24</v>
+      </c>
+      <c r="F127" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G127" s="3">
+        <f t="shared" si="1"/>
+        <v>35.59</v>
+      </c>
+      <c r="H127" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I127" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J127" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K127" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L127" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M127" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N127" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O127" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P127" s="3">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B128" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D128" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>36.33</v>
+      </c>
+      <c r="F128" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G128" s="3">
+        <f t="shared" si="1"/>
+        <v>34.68</v>
+      </c>
+      <c r="H128" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="I128" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J128" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K128" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L128" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M128" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="N128" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O128" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P128" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B129" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D129" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>42.34</v>
+      </c>
+      <c r="F129" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G129" s="3">
+        <f t="shared" si="1"/>
+        <v>40.69</v>
+      </c>
+      <c r="H129" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I129" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="K129" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L129" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M129" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N129" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="O129" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P129" s="3">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B130" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D130" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>40.92</v>
+      </c>
+      <c r="F130" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G130" s="3">
+        <f t="shared" si="1"/>
+        <v>39.27</v>
+      </c>
+      <c r="H130" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I130" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J130" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="K130" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L130" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M130" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N130" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O130" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P130" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B131" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D131" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>39.27</v>
+      </c>
+      <c r="F131" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G131" s="3">
+        <f t="shared" si="1"/>
+        <v>37.62</v>
+      </c>
+      <c r="H131" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I131" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J131" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K131" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="L131" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M131" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N131" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O131" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P131" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B132" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C132" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D132" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E132" s="1">
+        <v>37.61</v>
+      </c>
+      <c r="F132" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G132" s="3">
+        <f t="shared" si="1"/>
+        <v>35.96</v>
+      </c>
+      <c r="H132" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I132" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J132" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K132" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L132" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M132" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N132" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="O132" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P132" s="3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B133" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D133" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E133" s="1">
+        <v>38.91</v>
+      </c>
+      <c r="F133" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G133" s="3">
+        <f t="shared" si="1"/>
+        <v>37.26</v>
+      </c>
+      <c r="H133" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I133" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J133" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K133" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L133" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="M133" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N133" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O133" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P133" s="3">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B134" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D134" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E134" s="1">
+        <v>40.66</v>
+      </c>
+      <c r="F134" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G134" s="3">
+        <f t="shared" si="1"/>
+        <v>39.01</v>
+      </c>
+      <c r="H134" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I134" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J134" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K134" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L134" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M134" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N134" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O134" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P134" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B135" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D135" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>41.69</v>
+      </c>
+      <c r="F135" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G135" s="3">
+        <f t="shared" si="1"/>
+        <v>40.04</v>
+      </c>
+      <c r="H135" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I135" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J135" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K135" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L135" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M135" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="N135" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O135" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P135" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B136" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>33.81</v>
+      </c>
+      <c r="F136" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G136" s="3">
+        <f t="shared" si="1"/>
+        <v>32.19</v>
+      </c>
+      <c r="H136" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I136" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J136" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K136" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L136" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M136" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N136" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O136" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P136" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B137" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C137" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D137" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>32.66</v>
+      </c>
+      <c r="F137" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G137" s="3">
+        <f t="shared" si="1"/>
+        <v>31.04</v>
+      </c>
+      <c r="H137" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I137" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J137" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K137" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L137" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M137" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N137" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O137" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="P137" s="3">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B138" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C138" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D138" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E138" s="1">
+        <v>36.13</v>
+      </c>
+      <c r="F138" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G138" s="3">
+        <f t="shared" si="1"/>
+        <v>34.51</v>
+      </c>
+      <c r="H138" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I138" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J138" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K138" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L138" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="M138" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N138" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O138" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P138" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B139" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D139" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>34.47</v>
+      </c>
+      <c r="F139" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G139" s="3">
+        <f t="shared" si="1"/>
+        <v>32.85</v>
+      </c>
+      <c r="H139" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I139" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J139" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K139" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="L139" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="M139" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N139" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O139" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P139" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B140" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C140" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D140" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E140" s="1">
+        <v>33.8</v>
+      </c>
+      <c r="F140" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G140" s="3">
+        <f t="shared" si="1"/>
+        <v>32.18</v>
+      </c>
+      <c r="H140" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I140" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J140" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K140" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L140" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M140" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N140" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O140" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P140" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B141" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C141" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D141" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E141" s="1">
+        <v>34.65</v>
+      </c>
+      <c r="F141" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G141" s="3">
+        <f t="shared" si="1"/>
+        <v>33.03</v>
+      </c>
+      <c r="H141" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I141" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J141" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K141" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L141" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M141" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N141" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O141" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="P141" s="3">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B142" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C142" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D142" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>40.32</v>
+      </c>
+      <c r="F142" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G142" s="3">
+        <f t="shared" si="1"/>
+        <v>38.7</v>
+      </c>
+      <c r="H142" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I142" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J142" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K142" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L142" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M142" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N142" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O142" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P142" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B143" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C143" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D143" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>34.44</v>
+      </c>
+      <c r="F143" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G143" s="3">
+        <f t="shared" si="1"/>
+        <v>32.82</v>
+      </c>
+      <c r="H143" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I143" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J143" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K143" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L143" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M143" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N143" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="O143" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P143" s="3">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B144" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C144" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D144" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E144" s="1">
+        <v>35.91</v>
+      </c>
+      <c r="F144" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G144" s="3">
+        <f t="shared" si="1"/>
+        <v>34.29</v>
+      </c>
+      <c r="H144" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I144" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J144" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K144" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L144" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="M144" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N144" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O144" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P144" s="3">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B145" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C145" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D145" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>34.24</v>
+      </c>
+      <c r="F145" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G145" s="3">
+        <f t="shared" si="1"/>
+        <v>32.62</v>
+      </c>
+      <c r="H145" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I145" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J145" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K145" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L145" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M145" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N145" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="O145" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P145" s="3">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B146" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C146" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D146" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="E146" s="1">
+        <v>38.0</v>
+      </c>
+      <c r="F146" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G146" s="3">
+        <f t="shared" si="1"/>
+        <v>36.38</v>
+      </c>
+      <c r="H146" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="I146" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="J146" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K146" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L146" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M146" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N146" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O146" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P146" s="3">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B147" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C147" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D147" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="E147" s="1">
+        <v>34.68</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G147" s="3">
+        <f t="shared" si="1"/>
+        <v>33.06</v>
+      </c>
+      <c r="H147" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I147" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J147" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K147" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L147" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M147" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N147" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O147" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P147" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B148" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C148" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="D148" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>32.9</v>
+      </c>
+      <c r="F148" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="G148" s="3">
+        <f t="shared" si="1"/>
+        <v>31.28</v>
+      </c>
+      <c r="H148" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I148" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J148" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K148" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L148" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M148" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="N148" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O148" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P148" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B149" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C149" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E149" s="1">
+        <v>39.16</v>
+      </c>
+      <c r="F149" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G149" s="3">
+        <f t="shared" si="1"/>
+        <v>37.51</v>
+      </c>
+      <c r="H149" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="I149" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J149" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="K149" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L149" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M149" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N149" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O149" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P149" s="3">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C150" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D150" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E150" s="1">
+        <v>42.49</v>
+      </c>
+      <c r="F150" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G150" s="3">
+        <f t="shared" si="1"/>
+        <v>40.84</v>
+      </c>
+      <c r="H150" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I150" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J150" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K150" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L150" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M150" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N150" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O150" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P150" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C151" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D151" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E151" s="1">
+        <v>39.98</v>
+      </c>
+      <c r="F151" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G151" s="3">
+        <f t="shared" si="1"/>
+        <v>38.33</v>
+      </c>
+      <c r="H151" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I151" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J151" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K151" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L151" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M151" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N151" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O151" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P151" s="3">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B152" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C152" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D152" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E152" s="1">
+        <v>38.2</v>
+      </c>
+      <c r="F152" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G152" s="3">
+        <f t="shared" si="1"/>
+        <v>36.55</v>
+      </c>
+      <c r="H152" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I152" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J152" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K152" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="L152" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M152" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N152" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O152" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P152" s="3">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B153" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C153" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D153" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E153" s="1">
+        <v>36.02</v>
+      </c>
+      <c r="F153" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G153" s="3">
+        <f t="shared" si="1"/>
+        <v>34.37</v>
+      </c>
+      <c r="H153" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I153" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J153" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K153" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L153" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M153" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N153" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="O153" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P153" s="3">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B154" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C154" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="D154" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E154" s="1">
+        <v>37.34</v>
+      </c>
+      <c r="F154" s="1">
+        <v>1.65</v>
+      </c>
+      <c r="G154" s="3">
+        <f t="shared" si="1"/>
+        <v>35.69</v>
+      </c>
+      <c r="H154" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I154" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J154" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K154" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L154" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M154" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N154" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O154" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P154" s="3">
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/extraData/LuckyCharmsExtra.xlsx
+++ b/extraData/LuckyCharmsExtra.xlsx
@@ -165,12 +165,12 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$D$2:$D$154</c:f>
+              <c:f>Data!$D$2:$D$194</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$P$2:$P$154</c:f>
+              <c:f>Data!$P$2:$P$194</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -183,11 +183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="512588967"/>
-        <c:axId val="1260884359"/>
+        <c:axId val="1039035652"/>
+        <c:axId val="1733197761"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="512588967"/>
+        <c:axId val="1039035652"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -262,10 +262,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1260884359"/>
+        <c:crossAx val="1733197761"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1260884359"/>
+        <c:axId val="1733197761"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -340,7 +340,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="512588967"/>
+        <c:crossAx val="1039035652"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -699,7 +699,7 @@
         <v>1.76</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G154" si="1">E2-F2</f>
+        <f t="shared" ref="G2:G194" si="1">E2-F2</f>
         <v>28.77</v>
       </c>
       <c r="H2" s="1">
@@ -727,7 +727,7 @@
         <v>4.0</v>
       </c>
       <c r="P2" s="3">
-        <f t="shared" ref="P2:P154" si="2">SUM(H2:O2)</f>
+        <f t="shared" ref="P2:P194" si="2">SUM(H2:O2)</f>
         <v>33</v>
       </c>
     </row>
@@ -8633,6 +8633,2086 @@
       <c r="P154" s="3">
         <f t="shared" si="2"/>
         <v>40</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B155" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C155" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D155" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E155" s="1">
+        <v>32.02</v>
+      </c>
+      <c r="F155" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G155" s="3">
+        <f t="shared" si="1"/>
+        <v>30.24</v>
+      </c>
+      <c r="H155" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I155" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J155" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K155" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L155" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M155" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N155" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="O155" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P155" s="3">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B156" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C156" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D156" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>37.32</v>
+      </c>
+      <c r="F156" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G156" s="3">
+        <f t="shared" si="1"/>
+        <v>35.54</v>
+      </c>
+      <c r="H156" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I156" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J156" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K156" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L156" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M156" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N156" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O156" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P156" s="3">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B157" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C157" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D157" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E157" s="1">
+        <v>36.09</v>
+      </c>
+      <c r="F157" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G157" s="3">
+        <f t="shared" si="1"/>
+        <v>34.31</v>
+      </c>
+      <c r="H157" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I157" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="J157" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K157" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L157" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M157" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N157" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O157" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P157" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B158" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C158" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D158" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E158" s="1">
+        <v>34.36</v>
+      </c>
+      <c r="F158" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G158" s="3">
+        <f t="shared" si="1"/>
+        <v>32.58</v>
+      </c>
+      <c r="H158" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I158" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J158" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K158" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L158" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M158" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N158" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O158" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P158" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B159" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C159" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D159" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E159" s="1">
+        <v>39.05</v>
+      </c>
+      <c r="F159" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G159" s="3">
+        <f t="shared" si="1"/>
+        <v>37.27</v>
+      </c>
+      <c r="H159" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I159" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J159" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K159" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L159" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M159" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N159" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O159" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P159" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C160" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D160" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E160" s="1">
+        <v>36.96</v>
+      </c>
+      <c r="F160" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G160" s="3">
+        <f t="shared" si="1"/>
+        <v>35.18</v>
+      </c>
+      <c r="H160" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I160" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J160" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K160" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="L160" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M160" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N160" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O160" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P160" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B161" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C161" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D161" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E161" s="1">
+        <v>38.3</v>
+      </c>
+      <c r="F161" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G161" s="3">
+        <f t="shared" si="1"/>
+        <v>36.52</v>
+      </c>
+      <c r="H161" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I161" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J161" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K161" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L161" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M161" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="N161" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O161" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P161" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C162" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D162" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E162" s="1">
+        <v>36.52</v>
+      </c>
+      <c r="F162" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G162" s="3">
+        <f t="shared" si="1"/>
+        <v>34.74</v>
+      </c>
+      <c r="H162" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I162" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J162" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K162" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L162" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M162" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N162" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O162" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P162" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B163" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C163" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D163" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E163" s="1">
+        <v>37.04</v>
+      </c>
+      <c r="F163" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G163" s="3">
+        <f t="shared" si="1"/>
+        <v>35.26</v>
+      </c>
+      <c r="H163" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I163" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J163" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K163" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L163" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M163" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N163" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O163" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P163" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B164" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C164" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D164" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E164" s="1">
+        <v>38.99</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G164" s="3">
+        <f t="shared" si="1"/>
+        <v>37.21</v>
+      </c>
+      <c r="H164" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I164" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J164" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K164" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L164" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="M164" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="N164" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O164" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P164" s="3">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B165" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C165" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D165" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="E165" s="1">
+        <v>41.02</v>
+      </c>
+      <c r="F165" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G165" s="3">
+        <f t="shared" si="1"/>
+        <v>39.24</v>
+      </c>
+      <c r="H165" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I165" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J165" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="K165" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L165" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M165" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N165" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O165" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P165" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C166" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D166" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="E166" s="1">
+        <v>38.78</v>
+      </c>
+      <c r="F166" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G166" s="3">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="H166" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I166" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J166" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K166" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L166" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M166" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N166" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O166" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P166" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C167" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D167" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="E167" s="1">
+        <v>37.43</v>
+      </c>
+      <c r="F167" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G167" s="3">
+        <f t="shared" si="1"/>
+        <v>35.65</v>
+      </c>
+      <c r="H167" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I167" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J167" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K167" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L167" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M167" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N167" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O167" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P167" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B168" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C168" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D168" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="E168" s="1">
+        <v>36.99</v>
+      </c>
+      <c r="F168" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G168" s="3">
+        <f t="shared" si="1"/>
+        <v>35.21</v>
+      </c>
+      <c r="H168" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I168" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J168" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K168" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L168" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M168" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N168" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O168" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P168" s="3">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B169" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C169" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D169" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="E169" s="1">
+        <v>40.2</v>
+      </c>
+      <c r="F169" s="1">
+        <v>1.78</v>
+      </c>
+      <c r="G169" s="3">
+        <f t="shared" si="1"/>
+        <v>38.42</v>
+      </c>
+      <c r="H169" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I169" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J169" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K169" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L169" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M169" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="N169" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O169" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P169" s="3">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B170" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C170" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D170" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E170" s="1">
+        <v>32.87</v>
+      </c>
+      <c r="F170" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="G170" s="3">
+        <f t="shared" si="1"/>
+        <v>31.2</v>
+      </c>
+      <c r="H170" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I170" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J170" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K170" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L170" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M170" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N170" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O170" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P170" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B171" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C171" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D171" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E171" s="1">
+        <v>34.34</v>
+      </c>
+      <c r="F171" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="G171" s="3">
+        <f t="shared" si="1"/>
+        <v>32.67</v>
+      </c>
+      <c r="H171" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I171" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J171" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K171" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L171" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M171" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="N171" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O171" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P171" s="3">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B172" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C172" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D172" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E172" s="1">
+        <v>35.58</v>
+      </c>
+      <c r="F172" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="G172" s="3">
+        <f t="shared" si="1"/>
+        <v>33.91</v>
+      </c>
+      <c r="H172" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I172" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="J172" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K172" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L172" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M172" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N172" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O172" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P172" s="3">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B173" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C173" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D173" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E173" s="1">
+        <v>41.59</v>
+      </c>
+      <c r="F173" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="G173" s="3">
+        <f t="shared" si="1"/>
+        <v>39.92</v>
+      </c>
+      <c r="H173" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I173" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="J173" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K173" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L173" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M173" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N173" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O173" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P173" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B174" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C174" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D174" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E174" s="1">
+        <v>37.74</v>
+      </c>
+      <c r="F174" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="G174" s="3">
+        <f t="shared" si="1"/>
+        <v>36.07</v>
+      </c>
+      <c r="H174" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="I174" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="J174" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K174" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L174" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M174" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N174" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O174" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P174" s="3">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B175" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C175" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D175" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E175" s="1">
+        <v>37.9</v>
+      </c>
+      <c r="F175" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="G175" s="3">
+        <f t="shared" si="1"/>
+        <v>36.23</v>
+      </c>
+      <c r="H175" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I175" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J175" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K175" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L175" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M175" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="N175" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O175" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P175" s="3">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B176" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C176" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D176" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E176" s="1">
+        <v>39.79</v>
+      </c>
+      <c r="F176" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="G176" s="3">
+        <f t="shared" si="1"/>
+        <v>38.12</v>
+      </c>
+      <c r="H176" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I176" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="J176" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K176" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L176" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M176" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N176" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O176" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P176" s="3">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B177" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C177" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="D177" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E177" s="1">
+        <v>35.85</v>
+      </c>
+      <c r="F177" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="G177" s="3">
+        <f t="shared" si="1"/>
+        <v>34.18</v>
+      </c>
+      <c r="H177" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I177" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J177" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K177" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L177" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M177" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N177" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O177" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P177" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B178" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C178" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D178" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E178" s="1">
+        <v>37.13</v>
+      </c>
+      <c r="F178" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="G178" s="3">
+        <f t="shared" si="1"/>
+        <v>35.55</v>
+      </c>
+      <c r="H178" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I178" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J178" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K178" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L178" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M178" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="N178" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O178" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P178" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B179" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C179" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D179" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E179" s="1">
+        <v>36.6</v>
+      </c>
+      <c r="F179" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="G179" s="3">
+        <f t="shared" si="1"/>
+        <v>35.02</v>
+      </c>
+      <c r="H179" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I179" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J179" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K179" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L179" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="M179" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N179" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O179" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P179" s="3">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B180" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C180" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D180" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E180" s="1">
+        <v>35.72</v>
+      </c>
+      <c r="F180" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="G180" s="3">
+        <f t="shared" si="1"/>
+        <v>34.14</v>
+      </c>
+      <c r="H180" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="I180" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J180" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K180" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L180" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M180" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N180" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O180" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P180" s="3">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B181" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C181" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D181" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E181" s="1">
+        <v>34.43</v>
+      </c>
+      <c r="F181" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="G181" s="3">
+        <f t="shared" si="1"/>
+        <v>32.85</v>
+      </c>
+      <c r="H181" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="I181" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J181" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K181" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L181" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M181" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N181" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="O181" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P181" s="3">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C182" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D182" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E182" s="1">
+        <v>37.68</v>
+      </c>
+      <c r="F182" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="G182" s="3">
+        <f t="shared" si="1"/>
+        <v>36.1</v>
+      </c>
+      <c r="H182" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I182" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J182" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K182" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L182" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M182" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N182" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="O182" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P182" s="3">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B183" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C183" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="D183" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E183" s="1">
+        <v>38.39</v>
+      </c>
+      <c r="F183" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="G183" s="3">
+        <f t="shared" si="1"/>
+        <v>36.81</v>
+      </c>
+      <c r="H183" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I183" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J183" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="K183" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L183" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M183" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N183" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O183" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P183" s="3">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B184" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C184" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D184" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E184" s="1">
+        <v>44.19</v>
+      </c>
+      <c r="F184" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G184" s="3">
+        <f t="shared" si="1"/>
+        <v>42.46</v>
+      </c>
+      <c r="H184" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I184" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J184" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K184" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L184" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M184" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N184" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O184" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P184" s="3">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B185" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C185" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D185" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E185" s="1">
+        <v>40.59</v>
+      </c>
+      <c r="F185" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G185" s="3">
+        <f t="shared" si="1"/>
+        <v>38.86</v>
+      </c>
+      <c r="H185" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I185" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J185" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="K185" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L185" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M185" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="N185" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="O185" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P185" s="3">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B186" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C186" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D186" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E186" s="1">
+        <v>40.14</v>
+      </c>
+      <c r="F186" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G186" s="3">
+        <f t="shared" si="1"/>
+        <v>38.41</v>
+      </c>
+      <c r="H186" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="I186" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="J186" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K186" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L186" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="M186" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N186" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O186" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P186" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B187" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C187" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D187" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="E187" s="1">
+        <v>39.51</v>
+      </c>
+      <c r="F187" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G187" s="3">
+        <f t="shared" si="1"/>
+        <v>37.78</v>
+      </c>
+      <c r="H187" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="I187" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J187" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="K187" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L187" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M187" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N187" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O187" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P187" s="3">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B188" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C188" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D188" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E188" s="1">
+        <v>37.54</v>
+      </c>
+      <c r="F188" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G188" s="3">
+        <f t="shared" si="1"/>
+        <v>35.81</v>
+      </c>
+      <c r="H188" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I188" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J188" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K188" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L188" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="M188" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N188" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="O188" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P188" s="3">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B189" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C189" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D189" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E189" s="1">
+        <v>38.31</v>
+      </c>
+      <c r="F189" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G189" s="3">
+        <f t="shared" si="1"/>
+        <v>36.58</v>
+      </c>
+      <c r="H189" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I189" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J189" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="K189" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="L189" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M189" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N189" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O189" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="P189" s="3">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B190" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C190" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D190" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="E190" s="1">
+        <v>37.8</v>
+      </c>
+      <c r="F190" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G190" s="3">
+        <f t="shared" si="1"/>
+        <v>36.07</v>
+      </c>
+      <c r="H190" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I190" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="J190" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="K190" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L190" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M190" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="N190" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="O190" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P190" s="3">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B191" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C191" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D191" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="E191" s="1">
+        <v>38.03</v>
+      </c>
+      <c r="F191" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G191" s="3">
+        <f t="shared" si="1"/>
+        <v>36.3</v>
+      </c>
+      <c r="H191" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I191" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="J191" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="K191" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="L191" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M191" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N191" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="O191" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P191" s="3">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B192" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C192" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D192" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="E192" s="1">
+        <v>35.94</v>
+      </c>
+      <c r="F192" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G192" s="3">
+        <f t="shared" si="1"/>
+        <v>34.21</v>
+      </c>
+      <c r="H192" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I192" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="J192" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K192" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L192" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="M192" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="N192" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O192" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P192" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B193" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C193" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D193" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="E193" s="1">
+        <v>40.15</v>
+      </c>
+      <c r="F193" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G193" s="3">
+        <f t="shared" si="1"/>
+        <v>38.42</v>
+      </c>
+      <c r="H193" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="I193" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J193" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="K193" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L193" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="M193" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="N193" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="O193" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P193" s="3">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>45351.0</v>
+      </c>
+      <c r="B194" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="C194" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="D194" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="E194" s="1">
+        <v>39.3</v>
+      </c>
+      <c r="F194" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="G194" s="3">
+        <f t="shared" si="1"/>
+        <v>37.57</v>
+      </c>
+      <c r="H194" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="I194" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="J194" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="K194" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L194" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="M194" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="N194" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="O194" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P194" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
